--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400"/>
+    <workbookView windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -571,6 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,54 +631,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -691,10 +692,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -852,7 +853,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -861,13 +862,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -877,7 +878,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -886,7 +887,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -895,7 +896,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -905,12 +906,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -941,7 +942,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -960,7 +961,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -972,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -981,10 +982,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,12 +1549,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1562,12 +1563,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1599,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -1623,12 +1624,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,19 +1638,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1696,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1738,14 +1739,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1754,17 +1755,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1811,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1853,14 +1854,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1869,23 +1870,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1987,14 +1988,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,18 +2004,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2061,7 +2062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2103,14 +2104,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,16 +2120,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2175,7 +2176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2217,14 +2218,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,23 +2234,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2351,14 +2352,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,18 +2368,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2425,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2467,14 +2468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2483,14 +2484,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2537,7 +2538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2579,14 +2580,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2595,23 +2596,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2713,14 +2714,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,19 +2730,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2785,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -2825,13 +2826,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,20 +2841,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2900,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2942,14 +2943,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,16 +2959,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3014,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3056,14 +3057,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3072,20 +3073,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3187,14 +3188,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3203,20 +3204,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3263,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3305,14 +3306,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,17 +3322,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3378,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3420,14 +3421,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3436,21 +3437,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3552,14 +3553,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,18 +3569,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3626,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3668,14 +3669,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3684,14 +3685,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3738,7 +3739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3780,14 +3781,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,21 +3797,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3912,14 +3913,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,13 +3929,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3966,7 +3967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -3990,13 +3991,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,12 +4006,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4042,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -4066,13 +4067,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4081,18 +4082,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4139,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4181,14 +4182,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,15 +4198,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4252,7 +4253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4294,14 +4295,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4310,21 +4311,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4426,14 +4427,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,12 +4443,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4479,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -4503,13 +4504,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,18 +4519,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4576,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4618,14 +4619,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,13 +4635,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4687,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4729,14 +4730,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4745,21 +4746,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4861,15 +4862,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,18 +4879,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4936,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4978,14 +4979,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,14 +4995,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5048,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5090,14 +5091,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5106,20 +5107,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5221,14 +5222,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5237,18 +5238,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5295,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5335,15 +5336,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5352,18 +5353,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5410,7 +5411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5450,14 +5451,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5466,23 +5467,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5589,15 +5590,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5606,18 +5607,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5664,7 +5665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5706,14 +5707,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5722,18 +5723,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5780,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5822,14 +5823,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5838,22 +5839,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5955,9 +5956,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -571,7 +571,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,54 +630,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -692,10 +691,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -853,7 +852,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -862,13 +861,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -878,7 +877,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -887,7 +886,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -896,7 +895,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -906,12 +905,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -942,7 +941,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -961,7 +960,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -973,19 +972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,12 +1548,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1563,12 +1562,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1600,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -1624,12 +1623,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,19 +1637,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1697,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1739,14 +1738,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1755,17 +1754,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1812,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1854,14 +1853,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1870,23 +1869,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -1988,14 +1987,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2004,18 +2003,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2062,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2104,14 +2103,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2120,16 +2119,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2176,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2218,14 +2217,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,23 +2233,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2352,14 +2351,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,18 +2367,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2426,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2468,14 +2467,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,14 +2483,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2538,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2580,14 +2579,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2596,23 +2595,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2714,14 +2713,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,19 +2729,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2786,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -2826,13 +2825,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,20 +2840,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2901,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -2943,14 +2942,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2959,16 +2958,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3015,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3057,14 +3056,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3073,20 +3072,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3188,14 +3187,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3204,20 +3203,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3264,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3306,14 +3305,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,17 +3321,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3379,7 +3378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3421,14 +3420,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3437,21 +3436,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3553,14 +3552,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,18 +3568,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3627,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3669,14 +3668,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,14 +3684,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3739,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3781,14 +3780,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3797,21 +3796,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -3913,14 +3912,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3929,13 +3928,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3967,7 +3966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -3991,13 +3990,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4006,12 +4005,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4043,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -4067,13 +4066,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4082,18 +4081,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4140,7 +4139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4182,14 +4181,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4198,15 +4197,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4253,7 +4252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4295,14 +4294,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,21 +4310,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4427,14 +4426,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4443,12 +4442,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4480,7 +4479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
@@ -4504,13 +4503,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,18 +4518,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4577,7 +4576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4619,14 +4618,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4635,13 +4634,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4688,7 +4687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4730,14 +4729,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,21 +4745,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4862,15 +4861,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,18 +4878,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4937,7 +4936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -4979,14 +4978,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4995,14 +4994,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5049,7 +5048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5091,14 +5090,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,20 +5106,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5222,34 +5221,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5296,7 +5295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5336,15 +5335,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5353,18 +5352,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5411,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5451,14 +5450,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5467,23 +5466,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5590,15 +5589,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5607,18 +5606,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5665,7 +5664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5707,14 +5706,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5723,18 +5722,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5781,7 +5780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5823,14 +5822,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5839,22 +5838,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5956,9 +5955,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5303,7 +5303,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5346,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5458,10 +5458,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5580,11 +5580,6 @@
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1034,7 +1034,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1076,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1160,7 +1160,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1202,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1216,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1258,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1328,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1342,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1384,7 +1384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1398,7 +1398,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1412,7 +1412,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1440,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -1454,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1468,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1698,37 +1698,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1813,37 +1813,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1920,13 +1920,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1940,46 +1940,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2063,37 +2063,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2177,37 +2177,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2284,13 +2284,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2304,46 +2304,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2427,37 +2427,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2539,37 +2539,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2646,13 +2646,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2666,46 +2666,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2749,31 +2749,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2787,28 +2787,28 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2902,37 +2902,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3016,37 +3016,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3120,13 +3120,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3140,46 +3140,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3380,37 +3380,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3485,13 +3485,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3505,46 +3505,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3628,37 +3628,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3740,37 +3740,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3845,13 +3845,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3865,46 +3865,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -3968,19 +3968,19 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4018,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4044,19 +4044,19 @@
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4141,37 +4141,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4254,37 +4254,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4359,13 +4359,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4379,46 +4379,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4455,7 +4455,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4481,19 +4481,19 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4578,37 +4578,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4689,37 +4689,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4794,13 +4794,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4814,46 +4814,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4938,37 +4938,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5050,37 +5050,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5154,13 +5154,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5174,46 +5174,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5297,13 +5297,13 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5312,13 +5312,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>52</v>
@@ -5327,7 +5327,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5346,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5427,13 +5427,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -5442,7 +5442,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5460,8 +5460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,13 +5517,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -5537,13 +5537,13 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5552,25 +5552,25 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>52</v>
@@ -5595,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,37 +5661,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5711,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5777,37 +5777,37 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5827,8 +5827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5883,13 +5883,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5903,46 +5903,46 @@
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="3" activeTab="3"/>
+    <workbookView activeTab="5" firstSheet="3" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -571,6 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,54 +631,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -691,10 +692,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -852,7 +853,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -861,13 +862,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -877,7 +878,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -886,7 +887,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -895,7 +896,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -905,12 +906,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -941,7 +942,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -960,7 +961,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -972,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -981,10 +982,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,12 +1549,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1562,12 +1563,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1599,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -1623,12 +1624,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,19 +1638,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1696,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -1738,14 +1739,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1754,17 +1755,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1811,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -1853,14 +1854,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1869,23 +1870,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -1987,14 +1988,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,18 +2004,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2061,7 +2062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2103,14 +2104,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,16 +2120,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2175,7 +2176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2217,14 +2218,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,23 +2234,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2351,14 +2352,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,18 +2368,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2425,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2467,14 +2468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2483,14 +2484,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2537,7 +2538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2579,14 +2580,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2595,23 +2596,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2713,14 +2714,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,19 +2730,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2785,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -2825,13 +2826,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,20 +2841,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2900,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -2942,14 +2943,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,16 +2959,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3014,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3056,14 +3057,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3072,20 +3073,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3187,14 +3188,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3203,20 +3204,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3263,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3305,14 +3306,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,17 +3322,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3378,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3420,14 +3421,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3436,21 +3437,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3552,14 +3553,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,18 +3569,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3626,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3668,14 +3669,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3684,14 +3685,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3738,7 +3739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3780,14 +3781,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,21 +3797,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -3912,14 +3913,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,13 +3929,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3966,7 +3967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -3990,13 +3991,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,12 +4006,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4042,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -4066,13 +4067,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4081,18 +4082,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4139,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4181,14 +4182,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4197,15 +4198,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4252,7 +4253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4294,14 +4295,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4310,21 +4311,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4426,14 +4427,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,12 +4443,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4479,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -4503,13 +4504,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,18 +4519,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4576,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4618,14 +4619,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,13 +4635,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4687,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4729,14 +4730,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4745,21 +4746,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4861,15 +4862,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,18 +4879,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4936,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -4978,14 +4979,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,14 +4995,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5048,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5090,14 +5091,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5106,20 +5107,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5221,34 +5222,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5295,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5335,15 +5336,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5352,18 +5353,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5410,7 +5411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5450,39 +5451,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5584,15 +5585,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5601,18 +5602,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5659,7 +5660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5701,14 +5702,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5717,18 +5718,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5775,7 +5776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5817,14 +5818,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5833,22 +5834,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -5950,9 +5951,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView activeTab="3" firstSheet="3" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -339,9 +339,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>38</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>Monthly_RTIPayroll</t>
   </si>
   <si>
@@ -513,18 +507,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>45000.48</t>
   </si>
   <si>
@@ -565,6 +547,24 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -670,6 +670,18 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1004,7 +1016,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>70</v>
@@ -1602,19 +1614,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1633,7 +1645,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,10 +1714,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1714,22 +1726,22 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1749,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,10 +1829,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1829,22 +1841,22 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1864,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,13 +1933,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1944,10 +1956,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1956,31 +1968,31 @@
         <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -1998,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,10 +2079,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2079,22 +2091,22 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2114,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,10 +2193,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2193,22 +2205,22 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2228,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2285,13 +2297,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2308,10 +2320,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2320,22 +2332,22 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>60</v>
@@ -2362,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2431,10 +2443,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2443,22 +2455,22 @@
         <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2478,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,10 +2555,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2555,22 +2567,22 @@
         <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2590,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,13 +2659,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2670,10 +2682,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2682,31 +2694,31 @@
         <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2750,31 +2762,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2788,28 +2800,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2835,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2906,10 +2918,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2918,22 +2930,22 @@
         <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2953,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3020,10 +3032,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3032,22 +3044,22 @@
         <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3067,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3121,13 +3133,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3144,10 +3156,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3156,31 +3168,31 @@
         <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3198,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,10 +3281,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3281,22 +3293,22 @@
         <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3316,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,10 +3396,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3396,22 +3408,22 @@
         <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3431,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,13 +3498,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3509,10 +3521,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3521,31 +3533,31 @@
         <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3563,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3632,10 +3644,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3644,22 +3656,22 @@
         <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3679,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,10 +3756,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3756,22 +3768,22 @@
         <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3791,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3846,13 +3858,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3869,10 +3881,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3881,31 +3893,31 @@
         <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3923,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3969,19 +3981,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4045,19 +4057,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4076,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4145,10 +4157,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4157,22 +4169,22 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4192,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4258,10 +4270,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4270,22 +4282,22 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4305,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4360,13 +4372,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4383,10 +4395,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4395,31 +4407,31 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4437,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4482,19 +4494,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4513,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,10 +4594,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4594,22 +4606,22 @@
         <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4629,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4693,10 +4705,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4705,22 +4717,22 @@
         <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4740,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4795,13 +4807,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4818,10 +4830,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4830,31 +4842,31 @@
         <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4873,8 +4885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4942,10 +4954,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4954,22 +4966,22 @@
         <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4989,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5054,10 +5066,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5066,22 +5078,22 @@
         <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5102,7 +5114,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5155,13 +5167,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5178,10 +5190,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5190,31 +5202,31 @@
         <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5232,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5296,41 +5308,41 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>167</v>
+      <c r="F2" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5347,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5416,10 +5428,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5428,13 +5440,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -5461,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5518,13 +5530,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -5541,10 +5553,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5553,13 +5565,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>74</v>
@@ -5571,7 +5583,7 @@
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>52</v>
@@ -5665,34 +5677,34 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5781,22 +5793,22 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -5808,7 +5820,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5884,13 +5896,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5907,22 +5919,22 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -5934,7 +5946,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>79</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="3" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="172">
   <si>
     <t>TC</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
   </si>
 </sst>
 </file>
@@ -986,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>70</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>70</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>70</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>70</v>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>70</v>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>70</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>70</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>70</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>70</v>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>70</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>70</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>70</v>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>70</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
@@ -1226,7 +1229,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>70</v>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>70</v>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>70</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>70</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>70</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>70</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>70</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>70</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>70</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>70</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
@@ -1394,7 +1397,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
@@ -1422,7 +1425,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>70</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>70</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>70</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>70</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>70</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>70</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>70</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
@@ -1557,6 +1560,20 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5244,7 +5261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView activeTab="18" firstSheet="15" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -282,9 +282,6 @@
     <t>TestAprilReports</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForMay</t>
   </si>
   <si>
@@ -468,18 +465,6 @@
     <t>England</t>
   </si>
   <si>
-    <t>1000L</t>
-  </si>
-  <si>
-    <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
-  </si>
-  <si>
-    <t>Payroll Recognition ScenarioThree201718.xlsx</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH PAYROL RTI SCENRIO3 REPORT</t>
-  </si>
-  <si>
     <t>FirstNICatgoryChange</t>
   </si>
   <si>
@@ -489,9 +474,6 @@
     <t>May-2017</t>
   </si>
   <si>
-    <t>8161.32</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -568,6 +550,9 @@
   </si>
   <si>
     <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>12600.00</t>
   </si>
 </sst>
 </file>
@@ -991,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1004,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>70</v>
@@ -1033,7 +1018,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>70</v>
@@ -1117,7 +1102,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -1173,7 +1158,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>70</v>
@@ -1215,7 +1200,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
@@ -1257,7 +1242,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1284,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>70</v>
@@ -1341,7 +1326,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>70</v>
@@ -1397,7 +1382,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -1453,7 +1438,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>70</v>
@@ -1509,7 +1494,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>70</v>
@@ -1551,7 +1536,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
@@ -1586,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,19 +1616,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1661,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,10 +1716,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1742,23 +1727,23 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1778,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,10 +1831,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1857,23 +1842,23 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1893,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,13 +1935,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1973,10 +1958,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1984,14 +1969,14 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>55</v>
@@ -2000,16 +1985,16 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>58</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2027,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2096,10 +2081,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2107,14 +2092,14 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>56</v>
@@ -2123,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2143,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,10 +2195,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2221,23 +2206,23 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2257,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2314,13 +2299,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2337,10 +2322,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2348,29 +2333,29 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>61</v>
@@ -2391,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,10 +2445,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2471,14 +2456,14 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
@@ -2487,7 +2472,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2508,7 +2493,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2505,9 @@
     <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2572,10 +2559,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2583,23 +2570,23 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2619,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2676,13 +2663,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2699,10 +2686,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2710,32 +2697,32 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2779,31 +2766,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2817,28 +2804,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2864,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,10 +2922,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2946,23 +2933,23 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2982,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,10 +3036,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3060,23 +3047,23 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3096,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3150,13 +3137,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3173,10 +3160,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3184,14 +3171,14 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>58</v>
@@ -3200,16 +3187,16 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3228,7 +3215,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3298,10 +3285,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3309,23 +3296,23 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3345,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,10 +3400,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3424,23 +3411,23 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3461,7 +3448,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3515,13 +3502,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3538,10 +3525,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3549,32 +3536,32 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3592,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3661,10 +3648,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3672,14 +3659,14 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
@@ -3688,7 +3675,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3708,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3773,10 +3760,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3784,23 +3771,23 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3820,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3875,13 +3862,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3898,10 +3885,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3909,32 +3896,32 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3998,19 +3985,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4030,7 +4017,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,19 +4061,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4106,7 +4093,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,10 +4161,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4185,23 +4172,23 @@
       <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4221,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4287,10 +4274,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4298,23 +4285,23 @@
       <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4334,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4389,13 +4376,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4412,10 +4399,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4423,14 +4410,14 @@
       <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>60</v>
@@ -4439,16 +4426,16 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4511,19 +4498,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4542,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4611,25 +4598,25 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>61</v>
@@ -4638,7 +4625,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4658,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4671,6 +4658,7 @@
     <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4722,34 +4710,34 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4769,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4824,13 +4812,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4847,43 +4835,43 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4902,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4971,34 +4959,34 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5019,7 +5007,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5083,34 +5071,34 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5130,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5184,13 +5172,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5207,43 +5195,43 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5262,7 +5250,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5330,10 +5318,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -5342,13 +5330,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>52</v>
@@ -5445,10 +5433,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5457,13 +5445,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -5547,13 +5535,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -5570,10 +5558,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5582,13 +5570,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>74</v>
@@ -5600,7 +5588,7 @@
         <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>52</v>
@@ -5625,8 +5613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5694,34 +5682,34 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5741,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5810,25 +5798,25 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>54</v>
@@ -5837,7 +5825,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5857,8 +5845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5913,13 +5901,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5936,37 +5924,37 @@
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>55</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="28" activeTab="28"/>
+    <workbookView windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="172">
   <si>
     <t>TC</t>
   </si>
@@ -96,6 +96,9 @@
     <t>PayFrequency</t>
   </si>
   <si>
+    <t>Week1/Month1</t>
+  </si>
+  <si>
     <t>EmployerName</t>
   </si>
   <si>
@@ -279,6 +282,9 @@
     <t>TestAprilReports</t>
   </si>
   <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
+  </si>
+  <si>
     <t>ProcessFinalPayrollForMay</t>
   </si>
   <si>
@@ -462,6 +468,18 @@
     <t>England</t>
   </si>
   <si>
+    <t>1000L</t>
+  </si>
+  <si>
+    <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
+  </si>
+  <si>
+    <t>Payroll Recognition ScenarioThree201718.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAYROL RTI SCENRIO3 REPORT</t>
+  </si>
+  <si>
     <t>FirstNICatgoryChange</t>
   </si>
   <si>
@@ -471,15 +489,30 @@
     <t>May-2017</t>
   </si>
   <si>
+    <t>8161.32</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
+    <t>S900L</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
+    <t>C Employees over State pension age (attach passport/birth certificate)</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
+    <t>45000.48</t>
+  </si>
+  <si>
+    <t>45000.60</t>
+  </si>
+  <si>
     <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 104</t>
   </si>
   <si>
@@ -535,21 +568,13 @@
   </si>
   <si>
     <t>ExecuteQuery</t>
-  </si>
-  <si>
-    <t>12600.00</t>
-  </si>
-  <si>
-    <t>A All other employees</t>
-  </si>
-  <si>
-    <t>360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,66 +634,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,10 +707,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -843,7 +868,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -852,13 +877,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -868,7 +893,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -877,7 +902,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -886,7 +911,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -896,12 +921,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -932,7 +957,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -951,7 +976,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -963,19 +988,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,10 +1019,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1008,10 +1033,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1022,10 +1047,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1036,10 +1061,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1050,10 +1075,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1064,10 +1089,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1078,10 +1103,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1092,10 +1117,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1106,10 +1131,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1120,10 +1145,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1134,10 +1159,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1148,10 +1173,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1162,10 +1187,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1176,10 +1201,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1190,10 +1215,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1204,10 +1229,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1218,10 +1243,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1232,10 +1257,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1246,10 +1271,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1260,10 +1285,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1274,10 +1299,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1288,10 +1313,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1302,10 +1327,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1316,10 +1341,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1330,10 +1355,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1344,10 +1369,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1358,10 +1383,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1372,10 +1397,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1386,10 +1411,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1400,10 +1425,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1414,10 +1439,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1428,10 +1453,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -1442,10 +1467,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1456,10 +1481,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -1470,10 +1495,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -1484,10 +1509,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -1498,10 +1523,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -1512,10 +1537,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -1526,10 +1551,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -1540,10 +1565,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -1553,26 +1578,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1604,21 +1629,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1628,68 +1653,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1701,39 +1726,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1743,68 +1768,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1816,39 +1841,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1858,80 +1883,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1943,48 +1968,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -1992,69 +2017,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2066,39 +2091,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2108,67 +2133,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2180,39 +2205,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2222,80 +2247,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2307,48 +2332,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2356,69 +2381,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2430,39 +2455,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2472,67 +2497,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2544,39 +2567,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2586,80 +2609,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2671,48 +2694,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2720,14 +2743,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,19 +2759,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2756,31 +2779,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2792,30 +2815,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2832,70 +2855,70 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2907,39 +2930,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2949,67 +2972,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3021,39 +3044,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3063,77 +3086,77 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3145,48 +3168,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3194,71 +3217,71 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3270,39 +3293,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3312,68 +3335,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3385,39 +3408,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3427,78 +3450,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3510,48 +3533,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3559,69 +3582,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3633,39 +3656,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3675,65 +3698,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3745,39 +3768,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3787,78 +3810,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3870,48 +3893,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3919,29 +3942,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3949,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -3973,21 +3996,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -3997,27 +4020,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4025,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4049,21 +4072,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4073,68 +4096,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4146,39 +4169,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4188,66 +4211,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4259,39 +4282,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4301,78 +4324,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4384,48 +4407,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4433,28 +4456,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4462,7 +4485,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4486,21 +4509,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4510,68 +4533,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4583,39 +4606,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4625,65 +4648,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4695,39 +4717,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4737,78 +4759,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4820,48 +4842,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4869,306 +4891,306 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5180,48 +5202,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5229,69 +5251,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5303,39 +5325,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>4</v>
@@ -5343,15 +5365,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5360,53 +5382,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5418,39 +5440,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5458,14 +5480,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5474,64 +5496,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -5543,48 +5565,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5592,70 +5614,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5667,39 +5689,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5709,69 +5731,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5783,39 +5805,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5825,79 +5847,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5909,48 +5931,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5958,9 +5980,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="28" activeTab="28"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -96,9 +96,6 @@
     <t>PayFrequency</t>
   </si>
   <si>
-    <t>Week1/Month1</t>
-  </si>
-  <si>
     <t>EmployerName</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>TestAprilReports</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForMay</t>
   </si>
   <si>
@@ -468,18 +462,6 @@
     <t>England</t>
   </si>
   <si>
-    <t>1000L</t>
-  </si>
-  <si>
-    <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
-  </si>
-  <si>
-    <t>Payroll Recognition ScenarioThree201718.xlsx</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH PAYROL RTI SCENRIO3 REPORT</t>
-  </si>
-  <si>
     <t>FirstNICatgoryChange</t>
   </si>
   <si>
@@ -489,30 +471,15 @@
     <t>May-2017</t>
   </si>
   <si>
-    <t>8161.32</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>S900L</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>C Employees over State pension age (attach passport/birth certificate)</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>45000.48</t>
-  </si>
-  <si>
-    <t>45000.60</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 104</t>
   </si>
   <si>
@@ -568,13 +535,21 @@
   </si>
   <si>
     <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>A All other employees</t>
+  </si>
+  <si>
+    <t>360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,66 +609,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,10 +682,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -868,7 +843,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -877,13 +852,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -893,7 +868,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -902,7 +877,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,7 +886,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -921,12 +896,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -957,7 +932,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -976,7 +951,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -988,19 +963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,10 +994,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1033,10 +1008,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1047,10 +1022,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1061,10 +1036,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1075,10 +1050,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1089,10 +1064,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1103,10 +1078,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1117,10 +1092,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1131,10 +1106,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1145,10 +1120,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1159,10 +1134,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1173,10 +1148,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1187,10 +1162,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1201,10 +1176,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1215,10 +1190,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1229,10 +1204,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1243,10 +1218,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1257,10 +1232,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1271,10 +1246,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1285,10 +1260,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1299,10 +1274,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1313,10 +1288,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1327,10 +1302,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1341,10 +1316,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1355,10 +1330,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1369,10 +1344,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1383,10 +1358,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1397,10 +1372,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1411,10 +1386,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1425,10 +1400,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1439,10 +1414,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1453,10 +1428,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -1467,10 +1442,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1481,10 +1456,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -1495,10 +1470,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -1509,10 +1484,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -1523,10 +1498,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -1537,10 +1512,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -1551,10 +1526,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -1565,10 +1540,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -1578,26 +1553,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1605,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1629,21 +1604,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1653,68 +1628,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1726,39 +1701,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1768,68 +1743,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1841,39 +1816,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1883,80 +1858,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1968,48 +1943,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2017,69 +1992,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2091,39 +2066,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2133,67 +2108,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2205,39 +2180,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2247,80 +2222,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2332,48 +2307,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2381,69 +2356,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2455,39 +2430,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2497,65 +2472,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2567,39 +2544,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2609,80 +2586,80 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2694,48 +2671,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2743,14 +2720,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2759,19 +2736,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2779,31 +2756,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2815,30 +2792,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2855,70 +2832,70 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2930,39 +2907,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -2972,67 +2949,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3044,39 +3021,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3086,77 +3063,77 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3168,48 +3145,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3217,71 +3194,71 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3293,39 +3270,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3335,68 +3312,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3408,39 +3385,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3450,78 +3427,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3533,48 +3510,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3582,69 +3559,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3656,39 +3633,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3698,65 +3675,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -3768,39 +3745,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -3810,78 +3787,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3893,48 +3870,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3942,29 +3919,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3972,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -3996,21 +3973,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4020,27 +3997,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4048,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4072,21 +4049,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4096,68 +4073,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4169,39 +4146,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4211,66 +4188,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4282,39 +4259,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4324,78 +4301,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4407,48 +4384,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4456,28 +4433,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4485,7 +4462,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -4509,21 +4486,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4533,68 +4510,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4606,39 +4583,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4648,64 +4625,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4717,39 +4695,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4759,78 +4737,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4842,48 +4820,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4891,70 +4869,429 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -4966,414 +5303,55 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5382,53 +5360,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5440,39 +5418,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5480,14 +5458,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5496,64 +5474,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -5565,48 +5543,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5614,70 +5592,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5689,39 +5667,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5731,69 +5709,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5805,39 +5783,39 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -5847,79 +5825,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5931,48 +5909,48 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5980,9 +5958,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="28" activeTab="28"/>
+    <workbookView activeTab="28" firstSheet="28" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -550,6 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,66 +610,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,10 +683,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -843,7 +844,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -852,13 +853,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -868,7 +869,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -877,7 +878,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -886,7 +887,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -896,12 +897,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -932,7 +933,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -951,7 +952,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -963,7 +964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -972,10 +973,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,12 +1554,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1567,12 +1568,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1604,7 +1605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -1628,12 +1629,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1642,19 +1643,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1701,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1743,14 +1744,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1759,17 +1760,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1816,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1858,14 +1859,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1874,23 +1875,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -1992,14 +1993,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2008,18 +2009,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2066,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2108,14 +2109,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2124,16 +2125,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2180,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2222,14 +2223,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -2238,23 +2239,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2356,14 +2357,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2372,18 +2373,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2430,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2472,14 +2473,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2488,16 +2489,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2544,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2586,14 +2587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2602,23 +2603,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2720,14 +2721,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,19 +2737,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2792,7 +2793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -2832,13 +2833,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,20 +2848,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2907,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -2949,14 +2950,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2965,16 +2966,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3021,7 +3022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3063,14 +3064,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3079,20 +3080,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3194,14 +3195,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -3210,20 +3211,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3270,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3312,14 +3313,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3328,17 +3329,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3385,7 +3386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3427,14 +3428,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3443,21 +3444,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3559,14 +3560,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3575,18 +3576,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3633,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3675,14 +3676,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,14 +3692,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3745,7 +3746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3787,14 +3788,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3803,21 +3804,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -3919,14 +3920,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3935,13 +3936,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3973,7 +3974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3997,13 +3998,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,12 +4013,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4049,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -4073,13 +4074,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4088,18 +4089,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4146,7 +4147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4188,14 +4189,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -4204,15 +4205,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4259,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4301,14 +4302,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -4317,21 +4318,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4433,14 +4434,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,12 +4450,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4486,7 +4487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -4510,13 +4511,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4525,18 +4526,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4583,7 +4584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4625,14 +4626,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -4641,14 +4642,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4695,7 +4696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4737,14 +4738,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -4753,21 +4754,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4869,15 +4870,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -4886,18 +4887,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4944,7 +4945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -4986,14 +4987,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5002,14 +5003,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5056,7 +5057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5098,14 +5099,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -5114,20 +5115,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5229,14 +5230,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5245,18 +5246,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5303,7 +5304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>71</v>
       </c>
@@ -5343,15 +5344,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5360,18 +5361,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5418,7 +5419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5458,14 +5459,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5474,23 +5475,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5592,15 +5593,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5609,18 +5610,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5667,7 +5668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5709,14 +5710,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5725,18 +5726,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5783,7 +5784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5825,14 +5826,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -5841,22 +5842,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -5958,9 +5959,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="28" firstSheet="28" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="30" activeTab="32"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -267,9 +267,6 @@
     <t>UpdteTaxCodeAndAnualSalaryM1</t>
   </si>
   <si>
-    <t>DONT TOUCH AUTO EMPLR HMRC RECNTION</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForApril</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>38</t>
   </si>
   <si>
-    <t>Monthly_RTIPayroll</t>
-  </si>
-  <si>
     <t>AddressFirstLine</t>
   </si>
   <si>
@@ -544,14 +538,19 @@
   </si>
   <si>
     <t>360</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO HMRCS4 EMPLOYER</t>
+  </si>
+  <si>
+    <t>HMRCS4_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,14 +562,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -609,67 +600,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -683,10 +669,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -844,7 +830,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -853,13 +839,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -869,7 +855,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -878,7 +864,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -887,7 +873,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -897,12 +883,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -933,7 +919,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -952,7 +938,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -964,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -973,10 +959,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,7 +981,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>69</v>
@@ -1009,7 +995,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>69</v>
@@ -1051,7 +1037,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>69</v>
@@ -1065,7 +1051,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>69</v>
@@ -1093,7 +1079,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>69</v>
@@ -1149,7 +1135,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
@@ -1191,7 +1177,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>69</v>
@@ -1233,7 +1219,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>69</v>
@@ -1275,7 +1261,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>69</v>
@@ -1317,7 +1303,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
@@ -1373,7 +1359,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>69</v>
@@ -1429,7 +1415,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>69</v>
@@ -1485,7 +1471,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>69</v>
@@ -1527,7 +1513,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>69</v>
@@ -1554,12 +1540,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,12 +1554,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1605,21 +1591,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1629,33 +1615,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1702,15 +1688,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1718,17 +1704,17 @@
       <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -1744,33 +1730,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1817,15 +1803,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1833,17 +1819,17 @@
       <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -1859,39 +1845,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1926,13 +1912,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1944,15 +1930,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1960,14 +1946,14 @@
       <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>54</v>
@@ -1982,10 +1968,10 @@
         <v>57</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -1993,34 +1979,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2067,15 +2053,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2083,14 +2069,14 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>55</v>
@@ -2109,32 +2095,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2181,15 +2167,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2197,17 +2183,17 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2223,39 +2209,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2290,13 +2276,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2308,15 +2294,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2324,17 +2310,17 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2346,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>60</v>
@@ -2357,34 +2343,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2431,15 +2417,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2447,14 +2433,14 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>56</v>
@@ -2473,32 +2459,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2545,15 +2531,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2561,17 +2547,17 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2587,39 +2573,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2654,13 +2640,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2672,15 +2658,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2688,17 +2674,17 @@
       <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2707,13 +2693,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -2721,14 +2707,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,19 +2723,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2757,31 +2743,31 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -2793,30 +2779,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2833,35 +2819,35 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2908,15 +2894,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2924,17 +2910,17 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2950,32 +2936,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3022,15 +3008,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3038,17 +3024,17 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3064,36 +3050,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3128,13 +3114,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3146,15 +3132,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3162,14 +3148,14 @@
       <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
@@ -3181,13 +3167,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3195,36 +3181,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3271,15 +3257,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3287,17 +3273,17 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3313,33 +3299,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3386,15 +3372,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3402,17 +3388,17 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3428,37 +3414,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3493,13 +3479,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3511,15 +3497,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3527,17 +3513,17 @@
       <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3546,13 +3532,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3560,34 +3546,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3634,15 +3620,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3650,14 +3636,14 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>58</v>
@@ -3676,30 +3662,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3746,15 +3732,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3762,17 +3748,17 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3788,37 +3774,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3853,13 +3839,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3871,15 +3857,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3887,17 +3873,17 @@
       <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3906,13 +3892,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -3920,29 +3906,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3974,21 +3960,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -3998,27 +3984,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4050,21 +4036,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4074,33 +4060,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4147,15 +4133,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4163,23 +4149,23 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -4189,31 +4175,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4260,15 +4246,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4276,17 +4262,17 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -4302,37 +4288,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4367,13 +4353,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4385,15 +4371,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4401,14 +4387,14 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
@@ -4420,13 +4406,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4434,28 +4420,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4487,21 +4473,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4511,33 +4497,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4584,30 +4570,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>60</v>
@@ -4626,30 +4612,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4696,33 +4682,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -4738,37 +4724,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4803,13 +4789,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4821,33 +4807,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -4856,13 +4842,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -4870,35 +4856,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4945,33 +4931,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -4987,30 +4973,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5057,33 +5043,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5099,36 +5085,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5163,13 +5149,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5181,33 +5167,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5216,13 +5202,13 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>4</v>
@@ -5230,34 +5216,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5304,75 +5290,72 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>142</v>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5419,15 +5402,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5436,13 +5419,13 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>52</v>
@@ -5459,100 +5442,100 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5561,16 +5544,16 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5579,7 +5562,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>51</v>
@@ -5593,35 +5576,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5668,33 +5651,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5710,34 +5693,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5784,30 +5767,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -5826,38 +5809,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5892,13 +5875,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5910,33 +5893,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5945,7 +5928,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>54</v>
@@ -5959,9 +5942,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -4,55 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2376" windowWidth="9552" windowHeight="3564" firstSheet="30" activeTab="32"/>
+    <workbookView activeTab="32" firstSheet="30" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -550,6 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,61 +602,61 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -669,10 +670,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -830,7 +831,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -839,13 +840,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -855,7 +856,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -864,7 +865,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -873,7 +874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -883,12 +884,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -919,7 +920,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -938,7 +939,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -950,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -959,10 +960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,12 +1541,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1554,12 +1555,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1591,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -1615,12 +1616,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1629,19 +1630,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1688,7 +1689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1730,14 +1731,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1746,17 +1747,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1803,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1845,14 +1846,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1861,23 +1862,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1979,14 +1980,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1995,18 +1996,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2053,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2095,14 +2096,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2111,16 +2112,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2167,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2209,14 +2210,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2225,23 +2226,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2343,14 +2344,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,18 +2360,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2417,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2459,14 +2460,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2475,16 +2476,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2531,7 +2532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2573,14 +2574,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,23 +2590,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2707,14 +2708,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2723,19 +2724,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2779,7 +2780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -2819,13 +2820,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2834,20 +2835,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2894,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2936,14 +2937,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,16 +2953,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3008,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3050,14 +3051,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3066,20 +3067,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3181,14 +3182,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,20 +3198,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="52.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3257,7 +3258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3299,14 +3300,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3315,17 +3316,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3372,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3414,14 +3415,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,21 +3431,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3546,14 +3547,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3562,18 +3563,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3620,7 +3621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3662,14 +3663,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3678,14 +3679,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3732,7 +3733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3774,14 +3775,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,21 +3791,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3906,14 +3907,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,13 +3923,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3960,7 +3961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -3984,13 +3985,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,12 +4000,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4036,7 +4037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -4060,13 +4061,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4075,18 +4076,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4133,7 +4134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4175,14 +4176,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4191,15 +4192,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4246,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4288,14 +4289,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,21 +4305,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4420,14 +4421,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4436,12 +4437,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4473,7 +4474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -4497,13 +4498,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,18 +4513,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4570,7 +4571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4612,14 +4613,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,14 +4629,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4682,7 +4683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4724,14 +4725,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,21 +4741,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4856,15 +4857,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,18 +4874,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -4931,7 +4932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4973,14 +4974,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4989,14 +4990,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5043,7 +5044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5085,14 +5086,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,20 +5102,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5216,14 +5217,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5232,18 +5233,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5290,7 +5291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5329,13 +5330,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5344,18 +5345,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5402,7 +5403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5442,14 +5443,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5458,23 +5459,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5576,15 +5577,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5593,18 +5594,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5651,7 +5652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5693,14 +5694,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5709,18 +5710,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5767,7 +5768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5809,14 +5810,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5825,22 +5826,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5942,9 +5943,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="32" firstSheet="30" windowHeight="3564" windowWidth="9552" xWindow="0" yWindow="2376"/>
+    <workbookView activeTab="22" firstSheet="19" windowHeight="3570" windowWidth="9555" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -47,12 +52,12 @@
     <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
     <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -549,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -661,6 +666,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -708,7 +716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +749,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,6 +801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -958,15 +1000,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -994,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1008,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1022,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1092,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1120,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1190,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1218,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1246,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1260,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1274,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1302,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1316,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1330,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1358,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1372,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1442,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1512,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -1526,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1553,17 +1595,17 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -1628,24 +1670,24 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1745,22 +1787,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1860,25 +1902,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -1994,23 +2036,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2110,21 +2152,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2168,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2224,25 +2266,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2358,23 +2400,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2474,21 +2516,21 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2532,7 +2574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2588,25 +2630,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2722,24 +2764,24 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -2833,25 +2875,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -2948,24 +2990,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3065,22 +3107,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3192,29 +3234,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3258,7 +3300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3314,22 +3356,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3429,23 +3471,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3498,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3561,23 +3603,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3621,7 +3663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3677,19 +3719,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3789,23 +3831,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -3921,18 +3963,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3961,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -3998,17 +4040,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4037,7 +4079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -4074,23 +4116,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4134,7 +4176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4190,20 +4232,20 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4247,7 +4289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4303,23 +4345,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4372,7 +4414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4431,21 +4473,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4474,7 +4516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.799999999999997" r="2" s="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>140</v>
       </c>
@@ -4511,23 +4553,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4571,7 +4613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4627,19 +4669,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4683,7 +4725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4739,23 +4781,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4808,7 +4850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4872,23 +4914,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +4974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -4988,19 +5030,19 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +5086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5100,22 +5142,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5168,7 +5210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5231,23 +5273,23 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5291,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5343,23 +5385,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5403,7 +5445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5457,25 +5499,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.42578125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="28.8" r="1" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="30" r="1" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -5528,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5592,23 +5634,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5652,7 +5694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5708,23 +5750,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5768,7 +5810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
@@ -5824,24 +5866,24 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5894,7 +5936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>162</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="22" firstSheet="19" windowHeight="3570" windowWidth="9555" xWindow="0" yWindow="2370"/>
+    <workbookView activeTab="38" firstSheet="35" windowHeight="3570" windowWidth="9555" xWindow="0" yWindow="2370"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -479,9 +479,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 104</t>
-  </si>
-  <si>
     <t>121 Monthly Mews</t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>HMRCS4_Payroll</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 4</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>69</v>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,19 +1636,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,13 +1733,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1748,16 +1748,16 @@
         <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,13 +1848,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1863,13 +1863,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>76</v>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,13 +1975,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1990,13 +1990,13 @@
         <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>54</v>
@@ -2033,7 +2033,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,13 +2098,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2113,13 +2113,13 @@
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>55</v>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,13 +2212,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2227,16 +2227,16 @@
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2263,7 +2263,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,13 +2339,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2354,16 +2354,16 @@
         <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -2397,7 +2397,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,13 +2462,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2477,13 +2477,13 @@
         <v>63</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>56</v>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,13 +2576,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2591,13 +2591,13 @@
         <v>63</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>88</v>
@@ -2627,7 +2627,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,13 +2703,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2718,13 +2718,13 @@
         <v>63</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>119</v>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,28 +2824,28 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>130</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>8</v>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,13 +2939,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -2954,16 +2954,16 @@
         <v>64</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3068,13 +3068,13 @@
         <v>64</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>120</v>
@@ -3104,7 +3104,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,13 +3177,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3192,13 +3192,13 @@
         <v>64</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,13 +3302,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3317,13 +3317,13 @@
         <v>65</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>98</v>
@@ -3353,7 +3353,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,13 +3417,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3432,13 +3432,13 @@
         <v>65</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>137</v>
@@ -3468,7 +3468,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,13 +3542,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3557,16 +3557,16 @@
         <v>65</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -3600,7 +3600,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,13 +3665,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3680,13 +3680,13 @@
         <v>66</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>58</v>
@@ -3716,7 +3716,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,13 +3777,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3792,13 +3792,13 @@
         <v>66</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>121</v>
@@ -3828,7 +3828,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,13 +3902,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -3917,13 +3917,13 @@
         <v>66</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>138</v>
@@ -3960,7 +3960,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,19 +4005,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4037,7 +4037,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,19 +4081,19 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4113,7 +4113,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,13 +4178,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4193,13 +4193,13 @@
         <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>89</v>
@@ -4229,7 +4229,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,13 +4291,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4306,13 +4306,13 @@
         <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>122</v>
@@ -4342,7 +4342,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,13 +4416,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4431,13 +4431,13 @@
         <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>59</v>
@@ -4474,7 +4474,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,19 +4518,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,13 +4615,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4630,13 +4630,13 @@
         <v>79</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>60</v>
@@ -4666,7 +4666,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,13 +4727,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4742,13 +4742,13 @@
         <v>79</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>123</v>
@@ -4778,7 +4778,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4852,13 +4852,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4867,13 +4867,13 @@
         <v>79</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>91</v>
@@ -4911,7 +4911,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,13 +4976,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -4991,13 +4991,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>139</v>
@@ -5027,7 +5027,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,13 +5088,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5103,16 +5103,16 @@
         <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5138,8 +5138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,13 +5212,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5227,13 +5227,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>124</v>
@@ -5270,7 +5270,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,13 +5335,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>9</v>
@@ -5350,13 +5350,13 @@
         <v>50</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>51</v>
@@ -5382,7 +5382,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5447,13 +5447,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5462,13 +5462,13 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>52</v>
@@ -5496,7 +5496,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,13 +5572,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5587,13 +5587,13 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>72</v>
@@ -5631,7 +5631,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5696,13 +5696,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5711,16 +5711,16 @@
         <v>136</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -5747,7 +5747,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,13 +5812,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5827,13 +5827,13 @@
         <v>136</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -5863,7 +5863,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,13 +5938,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -5953,13 +5953,13 @@
         <v>136</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>75</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioFour201718.xlsx
@@ -1,63 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="38" firstSheet="35" windowHeight="3570" windowWidth="9555" xWindow="0" yWindow="2370"/>
+    <workbookView xWindow="0" yWindow="2370" windowWidth="9555" windowHeight="3570" firstSheet="35" activeTab="38"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId7" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId8" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId9" sheetId="18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId10" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId11" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId12" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId13" sheetId="20"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId14" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId15" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId16" sheetId="23"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId17" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId18" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId19" sheetId="26"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId20" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId21" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId22" sheetId="29"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId23" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId24" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId25" sheetId="32"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId26" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId27" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId28" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId29" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId30" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId31" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId32" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId33" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId34" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId35" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId36" sheetId="41"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId37" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId38" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId39" sheetId="44"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId7"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId8"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId9"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId10"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId11"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId12"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId13"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId14"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId15"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId16"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId18"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId19"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId20"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId21"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId22"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId23"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId24"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId25"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId26"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId27"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId29"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId31"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId33"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId35"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId36"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId37"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId38"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId39"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -548,14 +548,13 @@
     <t>HMRCS4_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 4</t>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,61 +606,61 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,10 +677,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -716,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +767,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +872,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -882,13 +881,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -898,7 +897,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -907,7 +906,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -916,7 +915,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -926,12 +925,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -962,7 +961,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -981,7 +980,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -993,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1002,10 +1001,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,12 +1582,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,12 +1596,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -1658,12 +1657,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1672,19 +1671,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1731,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -1773,14 +1772,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,17 +1788,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1846,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -1888,14 +1887,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1904,23 +1903,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2022,14 +2021,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2038,18 +2037,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2096,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2138,14 +2137,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2154,16 +2153,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2210,7 +2209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2252,14 +2251,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2268,23 +2267,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2386,14 +2385,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2402,18 +2401,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2460,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2502,14 +2501,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,16 +2517,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2574,7 +2573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2616,14 +2615,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,23 +2631,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2750,14 +2749,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,19 +2765,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2822,7 +2821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -2862,13 +2861,13 @@
       <c r="O2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2877,20 +2876,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2937,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -2979,14 +2978,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2995,16 +2994,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3051,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3093,14 +3092,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,20 +3108,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3224,14 +3223,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,20 +3239,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="52.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3300,7 +3299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3342,14 +3341,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,17 +3357,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3415,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3457,14 +3456,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3473,21 +3472,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3589,14 +3588,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,18 +3604,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3663,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3705,14 +3704,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,14 +3720,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3775,7 +3774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3817,14 +3816,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3833,21 +3832,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -3949,14 +3948,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,13 +3964,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -4027,13 +4026,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,12 +4041,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,7 +4078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -4103,13 +4102,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4118,18 +4117,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4176,7 +4175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4218,14 +4217,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4234,15 +4233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4289,7 +4288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4331,14 +4330,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,21 +4346,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4463,14 +4462,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4479,12 +4478,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4516,7 +4515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.9" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -4540,13 +4539,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,18 +4554,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4613,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4655,14 +4654,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4671,14 +4670,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4725,7 +4724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4767,14 +4766,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4783,21 +4782,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -4899,15 +4898,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4916,18 +4915,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4974,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -5016,14 +5015,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5032,14 +5031,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5086,7 +5085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -5128,14 +5127,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5144,20 +5143,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -5259,14 +5258,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5275,18 +5274,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5333,7 +5332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>161</v>
       </c>
@@ -5372,13 +5371,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/